--- a/doors-detector/results/house22_door_no_door.xlsx
+++ b/doors-detector/results/house22_door_no_door.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.764366232193853</v>
+        <v>0.7788650126460861</v>
       </c>
       <c r="F2" t="n">
         <v>5150</v>
       </c>
       <c r="G2" t="n">
-        <v>4256</v>
+        <v>4302</v>
       </c>
       <c r="H2" t="n">
-        <v>894</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6156804550953558</v>
+        <v>0.601870399774157</v>
       </c>
       <c r="F3" t="n">
         <v>308</v>
       </c>
       <c r="G3" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H3" t="n">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7205837795537173</v>
+        <v>0.7185072060396909</v>
       </c>
       <c r="F4" t="n">
         <v>5150</v>
       </c>
       <c r="G4" t="n">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="H4" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6633836287119759</v>
+        <v>0.6665193566418689</v>
       </c>
       <c r="F5" t="n">
         <v>308</v>
       </c>
       <c r="G5" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H5" t="n">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7123149913489203</v>
+        <v>0.7182531653078413</v>
       </c>
       <c r="F6" t="n">
         <v>5150</v>
       </c>
       <c r="G6" t="n">
-        <v>4061</v>
+        <v>4079</v>
       </c>
       <c r="H6" t="n">
-        <v>1089</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6804285766921392</v>
+        <v>0.6806831227397145</v>
       </c>
       <c r="F7" t="n">
         <v>308</v>
@@ -664,7 +664,7 @@
         <v>265</v>
       </c>
       <c r="H7" t="n">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6853906877386026</v>
+        <v>0.6892165432038949</v>
       </c>
       <c r="F8" t="n">
         <v>5150</v>
       </c>
       <c r="G8" t="n">
-        <v>3969</v>
+        <v>3982</v>
       </c>
       <c r="H8" t="n">
-        <v>1181</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7373022644903938</v>
+        <v>0.7381489128213679</v>
       </c>
       <c r="F9" t="n">
         <v>308</v>
       </c>
       <c r="G9" t="n">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H9" t="n">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
